--- a/edge_spot_analyser/config_round2_V3.xlsx
+++ b/edge_spot_analyser/config_round2_V3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gladkoc/Library/CloudStorage/Dropbox/_Janelia/_Manuscript/__data/imaging_analysis/_revision_reanalysis/CP_replacement_analysis/Comparisons_V2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17216228-CA40-B142-93EC-E37A5B055A99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D717739-E4C9-1B49-BDF0-060456F1B336}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15300" yWindow="9300" windowWidth="35740" windowHeight="16220" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="60320" yWindow="920" windowWidth="29920" windowHeight="18560" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Otsu_params" sheetId="21" r:id="rId1"/>
@@ -1200,7 +1200,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2022D8B-5EDE-2F40-A664-BEBF8BCAC408}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
@@ -2163,7 +2163,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C5"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2200,7 +2200,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>250323</v>
+        <v>250423</v>
       </c>
       <c r="B4" t="s">
         <v>22</v>
@@ -2211,7 +2211,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>250324</v>
+        <v>250425</v>
       </c>
       <c r="B5" t="s">
         <v>22</v>
@@ -2230,7 +2230,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="A4" sqref="A4:A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2267,7 +2267,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>250323</v>
+        <v>250423</v>
       </c>
       <c r="B4" t="s">
         <v>28</v>
@@ -2278,7 +2278,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>250324</v>
+        <v>250425</v>
       </c>
       <c r="B5" t="s">
         <v>28</v>
@@ -2297,7 +2297,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="A4" sqref="A4:A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2363,8 +2363,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E738E4B-309A-8549-9D5F-333CB3DADFB5}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
